--- a/src/original_data/FRB_Z1.xlsx
+++ b/src/original_data/FRB_Z1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="288">
   <si>
     <t>Download Page</t>
   </si>
@@ -45,6 +45,15 @@
     <t>Nonfinancial noncorporate business; proprietors' equity in noncorporate business (net worth)</t>
   </si>
   <si>
+    <t>Nonfinancial business; total capital expenditures</t>
+  </si>
+  <si>
+    <t>Nonfinancial corporate business; consumption of fixed capital, structures, equipment, and intellectual property products, including equity REIT residential structures (NIPA basis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonfinancial noncorporate business; consumption of fixed capital, structures, equipment, and intellectual property products, current cost basis </t>
+  </si>
+  <si>
     <t>Unit:</t>
   </si>
   <si>
@@ -78,6 +87,15 @@
     <t>Z1/Z1/FA112090205.Q</t>
   </si>
   <si>
+    <t>Z1/Z1/FA145050005.Q</t>
+  </si>
+  <si>
+    <t>Z1/Z1/FA106300083.Q</t>
+  </si>
+  <si>
+    <t>Z1/Z1/FA116300001.Q</t>
+  </si>
+  <si>
     <t>Time Period</t>
   </si>
   <si>
@@ -94,6 +112,15 @@
   </si>
   <si>
     <t>FA112090205.Q</t>
+  </si>
+  <si>
+    <t>FA145050005.Q</t>
+  </si>
+  <si>
+    <t>FA106300083.Q</t>
+  </si>
+  <si>
+    <t>FA116300001.Q</t>
   </si>
   <si>
     <t>1952Q1</t>
@@ -1266,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1302,7 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1302,30 +1329,48 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1000000</v>
@@ -1342,70 +1387,106 @@
       <c r="F4">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1000000</v>
+      </c>
+      <c r="H4">
+        <v>1000000</v>
+      </c>
+      <c r="I4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>6492</v>
@@ -1422,10 +1503,19 @@
       <c r="F8">
         <v>5579</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>39391</v>
+      </c>
+      <c r="H8">
+        <v>15255</v>
+      </c>
+      <c r="I8">
+        <v>8257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>9132</v>
@@ -1442,10 +1532,19 @@
       <c r="F9">
         <v>-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>33823</v>
+      </c>
+      <c r="H9">
+        <v>15438</v>
+      </c>
+      <c r="I9">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>9624</v>
@@ -1462,10 +1561,19 @@
       <c r="F10">
         <v>1705</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>38139</v>
+      </c>
+      <c r="H10">
+        <v>15672</v>
+      </c>
+      <c r="I10">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>9676</v>
@@ -1482,10 +1590,19 @@
       <c r="F11">
         <v>2876</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>40742</v>
+      </c>
+      <c r="H11">
+        <v>15955</v>
+      </c>
+      <c r="I11">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>7040</v>
@@ -1502,10 +1619,19 @@
       <c r="F12">
         <v>1568</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>41094</v>
+      </c>
+      <c r="H12">
+        <v>16288</v>
+      </c>
+      <c r="I12">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>6028</v>
@@ -1522,10 +1648,19 @@
       <c r="F13">
         <v>-453</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>41386</v>
+      </c>
+      <c r="H13">
+        <v>16598</v>
+      </c>
+      <c r="I13">
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>6592</v>
@@ -1542,10 +1677,19 @@
       <c r="F14">
         <v>717</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>41096</v>
+      </c>
+      <c r="H14">
+        <v>16883</v>
+      </c>
+      <c r="I14">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>-576</v>
@@ -1562,10 +1706,19 @@
       <c r="F15">
         <v>9820</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>36301</v>
+      </c>
+      <c r="H15">
+        <v>17143</v>
+      </c>
+      <c r="I15">
+        <v>8757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>6112</v>
@@ -1582,10 +1735,19 @@
       <c r="F16">
         <v>-1745</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>35197</v>
+      </c>
+      <c r="H16">
+        <v>17380</v>
+      </c>
+      <c r="I16">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>4704</v>
@@ -1602,10 +1764,19 @@
       <c r="F17">
         <v>-3056</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>33790</v>
+      </c>
+      <c r="H17">
+        <v>17612</v>
+      </c>
+      <c r="I17">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>8676</v>
@@ -1622,10 +1793,19 @@
       <c r="F18">
         <v>-3067</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>35932</v>
+      </c>
+      <c r="H18">
+        <v>17840</v>
+      </c>
+      <c r="I18">
+        <v>8935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>5104</v>
@@ -1642,10 +1822,19 @@
       <c r="F19">
         <v>3534</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>37851</v>
+      </c>
+      <c r="H19">
+        <v>18064</v>
+      </c>
+      <c r="I19">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>6908</v>
@@ -1662,10 +1851,19 @@
       <c r="F20">
         <v>-554</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>42429</v>
+      </c>
+      <c r="H20">
+        <v>18283</v>
+      </c>
+      <c r="I20">
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>13572</v>
@@ -1682,10 +1880,19 @@
       <c r="F21">
         <v>-4618</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>45650</v>
+      </c>
+      <c r="H21">
+        <v>18623</v>
+      </c>
+      <c r="I21">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>11712</v>
@@ -1702,10 +1909,19 @@
       <c r="F22">
         <v>-2602</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>47759</v>
+      </c>
+      <c r="H22">
+        <v>19082</v>
+      </c>
+      <c r="I22">
+        <v>9291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>17392</v>
@@ -1722,10 +1938,19 @@
       <c r="F23">
         <v>3469</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>52604</v>
+      </c>
+      <c r="H23">
+        <v>19660</v>
+      </c>
+      <c r="I23">
+        <v>9462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>12676</v>
@@ -1742,10 +1967,19 @@
       <c r="F24">
         <v>751</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>52546</v>
+      </c>
+      <c r="H24">
+        <v>20359</v>
+      </c>
+      <c r="I24">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>15112</v>
@@ -1762,10 +1996,19 @@
       <c r="F25">
         <v>-2442</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>50908</v>
+      </c>
+      <c r="H25">
+        <v>21037</v>
+      </c>
+      <c r="I25">
+        <v>9855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>12524</v>
@@ -1782,10 +2025,19 @@
       <c r="F26">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>52377</v>
+      </c>
+      <c r="H26">
+        <v>21695</v>
+      </c>
+      <c r="I26">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>11032</v>
@@ -1802,10 +2054,19 @@
       <c r="F27">
         <v>3164</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>51557</v>
+      </c>
+      <c r="H27">
+        <v>22333</v>
+      </c>
+      <c r="I27">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>12344</v>
@@ -1822,10 +2083,19 @@
       <c r="F28">
         <v>1114</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>52666</v>
+      </c>
+      <c r="H28">
+        <v>22950</v>
+      </c>
+      <c r="I28">
+        <v>10278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>14872</v>
@@ -1842,10 +2112,19 @@
       <c r="F29">
         <v>-33</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>53221</v>
+      </c>
+      <c r="H29">
+        <v>23519</v>
+      </c>
+      <c r="I29">
+        <v>10402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>11004</v>
@@ -1862,10 +2141,19 @@
       <c r="F30">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>54683</v>
+      </c>
+      <c r="H30">
+        <v>24041</v>
+      </c>
+      <c r="I30">
+        <v>10529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>10260</v>
@@ -1882,10 +2170,19 @@
       <c r="F31">
         <v>410</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>46542</v>
+      </c>
+      <c r="H31">
+        <v>24514</v>
+      </c>
+      <c r="I31">
+        <v>10663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>9628</v>
@@ -1902,10 +2199,19 @@
       <c r="F32">
         <v>2987</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>43451</v>
+      </c>
+      <c r="H32">
+        <v>24940</v>
+      </c>
+      <c r="I32">
+        <v>10799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>8304</v>
@@ -1922,10 +2228,19 @@
       <c r="F33">
         <v>1887</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>41934</v>
+      </c>
+      <c r="H33">
+        <v>25333</v>
+      </c>
+      <c r="I33">
+        <v>10916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>10948</v>
@@ -1942,10 +2257,19 @@
       <c r="F34">
         <v>3222</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>47710</v>
+      </c>
+      <c r="H34">
+        <v>25692</v>
+      </c>
+      <c r="I34">
+        <v>11015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>15660</v>
@@ -1962,10 +2286,19 @@
       <c r="F35">
         <v>3442</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>53619</v>
+      </c>
+      <c r="H35">
+        <v>26018</v>
+      </c>
+      <c r="I35">
+        <v>11094</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>10520</v>
@@ -1982,10 +2315,19 @@
       <c r="F36">
         <v>-2925</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>54048</v>
+      </c>
+      <c r="H36">
+        <v>26311</v>
+      </c>
+      <c r="I36">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>20344</v>
@@ -2002,10 +2344,19 @@
       <c r="F37">
         <v>-7727</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>59229</v>
+      </c>
+      <c r="H37">
+        <v>26579</v>
+      </c>
+      <c r="I37">
+        <v>11140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>13272</v>
@@ -2022,10 +2373,19 @@
       <c r="F38">
         <v>-6828</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>53095</v>
+      </c>
+      <c r="H38">
+        <v>26822</v>
+      </c>
+      <c r="I38">
+        <v>11183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B39">
         <v>14464</v>
@@ -2042,10 +2402,19 @@
       <c r="F39">
         <v>-592</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>56663</v>
+      </c>
+      <c r="H39">
+        <v>27041</v>
+      </c>
+      <c r="I39">
+        <v>11217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>14904</v>
@@ -2062,10 +2431,19 @@
       <c r="F40">
         <v>-200</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>66320</v>
+      </c>
+      <c r="H40">
+        <v>27235</v>
+      </c>
+      <c r="I40">
+        <v>11199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B41">
         <v>15916</v>
@@ -2082,10 +2460,19 @@
       <c r="F41">
         <v>-1772</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>58585</v>
+      </c>
+      <c r="H41">
+        <v>27442</v>
+      </c>
+      <c r="I41">
+        <v>11269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B42">
         <v>10104</v>
@@ -2102,10 +2489,19 @@
       <c r="F42">
         <v>-855</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>58750</v>
+      </c>
+      <c r="H42">
+        <v>27664</v>
+      </c>
+      <c r="I42">
+        <v>11328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>13964</v>
@@ -2122,10 +2518,19 @@
       <c r="F43">
         <v>-721</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>48611</v>
+      </c>
+      <c r="H43">
+        <v>27899</v>
+      </c>
+      <c r="I43">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B44">
         <v>9556</v>
@@ -2142,10 +2547,19 @@
       <c r="F44">
         <v>-5154</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>51409</v>
+      </c>
+      <c r="H44">
+        <v>28148</v>
+      </c>
+      <c r="I44">
+        <v>11410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>13404</v>
@@ -2162,10 +2576,19 @@
       <c r="F45">
         <v>963</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>56892</v>
+      </c>
+      <c r="H45">
+        <v>28414</v>
+      </c>
+      <c r="I45">
+        <v>11460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>14064</v>
@@ -2182,10 +2605,19 @@
       <c r="F46">
         <v>625</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>62646</v>
+      </c>
+      <c r="H46">
+        <v>28697</v>
+      </c>
+      <c r="I46">
+        <v>11527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B47">
         <v>19328</v>
@@ -2202,10 +2634,19 @@
       <c r="F47">
         <v>4507</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>64098</v>
+      </c>
+      <c r="H47">
+        <v>28997</v>
+      </c>
+      <c r="I47">
+        <v>11611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B48">
         <v>12924</v>
@@ -2222,10 +2663,19 @@
       <c r="F48">
         <v>1547</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>68639</v>
+      </c>
+      <c r="H48">
+        <v>29314</v>
+      </c>
+      <c r="I48">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B49">
         <v>20540</v>
@@ -2242,10 +2692,19 @@
       <c r="F49">
         <v>-609</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>66429</v>
+      </c>
+      <c r="H49">
+        <v>29645</v>
+      </c>
+      <c r="I49">
+        <v>11807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B50">
         <v>17244</v>
@@ -2262,10 +2721,19 @@
       <c r="F50">
         <v>421</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>68171</v>
+      </c>
+      <c r="H50">
+        <v>29989</v>
+      </c>
+      <c r="I50">
+        <v>11894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B51">
         <v>21548</v>
@@ -2282,10 +2750,19 @@
       <c r="F51">
         <v>937</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>65297</v>
+      </c>
+      <c r="H51">
+        <v>30348</v>
+      </c>
+      <c r="I51">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B52">
         <v>15556</v>
@@ -2302,10 +2779,19 @@
       <c r="F52">
         <v>2265</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>69571</v>
+      </c>
+      <c r="H52">
+        <v>30720</v>
+      </c>
+      <c r="I52">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B53">
         <v>18824</v>
@@ -2322,10 +2808,19 @@
       <c r="F53">
         <v>633</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>69654</v>
+      </c>
+      <c r="H53">
+        <v>31117</v>
+      </c>
+      <c r="I53">
+        <v>12131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B54">
         <v>17376</v>
@@ -2342,10 +2837,19 @@
       <c r="F54">
         <v>2238</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>72345</v>
+      </c>
+      <c r="H54">
+        <v>31538</v>
+      </c>
+      <c r="I54">
+        <v>12231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B55">
         <v>25900</v>
@@ -2362,10 +2866,19 @@
       <c r="F55">
         <v>3558</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>74203</v>
+      </c>
+      <c r="H55">
+        <v>31984</v>
+      </c>
+      <c r="I55">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B56">
         <v>16300</v>
@@ -2382,10 +2895,19 @@
       <c r="F56">
         <v>2791</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>75551</v>
+      </c>
+      <c r="H56">
+        <v>32454</v>
+      </c>
+      <c r="I56">
+        <v>12476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B57">
         <v>23156</v>
@@ -2402,10 +2924,19 @@
       <c r="F57">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>76001</v>
+      </c>
+      <c r="H57">
+        <v>32961</v>
+      </c>
+      <c r="I57">
+        <v>12621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B58">
         <v>23024</v>
@@ -2422,10 +2953,19 @@
       <c r="F58">
         <v>1187</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>78004</v>
+      </c>
+      <c r="H58">
+        <v>33506</v>
+      </c>
+      <c r="I58">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B59">
         <v>26332</v>
@@ -2442,10 +2982,19 @@
       <c r="F59">
         <v>5346</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>80955</v>
+      </c>
+      <c r="H59">
+        <v>34088</v>
+      </c>
+      <c r="I59">
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B60">
         <v>28764</v>
@@ -2462,10 +3011,19 @@
       <c r="F60">
         <v>3236</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>90928</v>
+      </c>
+      <c r="H60">
+        <v>34707</v>
+      </c>
+      <c r="I60">
+        <v>13140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B61">
         <v>29860</v>
@@ -2482,10 +3040,19 @@
       <c r="F61">
         <v>1735</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>91174</v>
+      </c>
+      <c r="H61">
+        <v>35403</v>
+      </c>
+      <c r="I61">
+        <v>13347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B62">
         <v>29332</v>
@@ -2502,10 +3069,19 @@
       <c r="F62">
         <v>3467</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>94569</v>
+      </c>
+      <c r="H62">
+        <v>36176</v>
+      </c>
+      <c r="I62">
+        <v>13573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B63">
         <v>30212</v>
@@ -2522,10 +3098,19 @@
       <c r="F63">
         <v>6610</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>96573</v>
+      </c>
+      <c r="H63">
+        <v>37026</v>
+      </c>
+      <c r="I63">
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B64">
         <v>38208</v>
@@ -2542,10 +3127,19 @@
       <c r="F64">
         <v>1199</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>106279</v>
+      </c>
+      <c r="H64">
+        <v>37953</v>
+      </c>
+      <c r="I64">
+        <v>14081</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B65">
         <v>42080</v>
@@ -2562,10 +3156,19 @@
       <c r="F65">
         <v>1474</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>107198</v>
+      </c>
+      <c r="H65">
+        <v>38899</v>
+      </c>
+      <c r="I65">
+        <v>14338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B66">
         <v>32008</v>
@@ -2582,10 +3185,19 @@
       <c r="F66">
         <v>5483</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>107644</v>
+      </c>
+      <c r="H66">
+        <v>39865</v>
+      </c>
+      <c r="I66">
+        <v>14588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B67">
         <v>25684</v>
@@ -2602,10 +3214,19 @@
       <c r="F67">
         <v>5827</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>112709</v>
+      </c>
+      <c r="H67">
+        <v>40850</v>
+      </c>
+      <c r="I67">
+        <v>14831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B68">
         <v>33476</v>
@@ -2622,10 +3243,19 @@
       <c r="F68">
         <v>6677</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>110350</v>
+      </c>
+      <c r="H68">
+        <v>41855</v>
+      </c>
+      <c r="I68">
+        <v>15065</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B69">
         <v>37240</v>
@@ -2642,10 +3272,19 @@
       <c r="F69">
         <v>-1090</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>102705</v>
+      </c>
+      <c r="H69">
+        <v>42896</v>
+      </c>
+      <c r="I69">
+        <v>15311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B70">
         <v>32820</v>
@@ -2662,10 +3301,19 @@
       <c r="F70">
         <v>-236</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>104944</v>
+      </c>
+      <c r="H70">
+        <v>43972</v>
+      </c>
+      <c r="I70">
+        <v>15567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>27112</v>
@@ -2682,10 +3330,19 @@
       <c r="F71">
         <v>-1615</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>109819</v>
+      </c>
+      <c r="H71">
+        <v>45085</v>
+      </c>
+      <c r="I71">
+        <v>15832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <v>39864</v>
@@ -2702,10 +3359,19 @@
       <c r="F72">
         <v>10736</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>114314</v>
+      </c>
+      <c r="H72">
+        <v>46234</v>
+      </c>
+      <c r="I72">
+        <v>16107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B73">
         <v>43288</v>
@@ -2722,10 +3388,19 @@
       <c r="F73">
         <v>1319</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>119029</v>
+      </c>
+      <c r="H73">
+        <v>47437</v>
+      </c>
+      <c r="I73">
+        <v>16414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>40668</v>
@@ -2742,10 +3417,19 @@
       <c r="F74">
         <v>923</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>115232</v>
+      </c>
+      <c r="H74">
+        <v>48693</v>
+      </c>
+      <c r="I74">
+        <v>16752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B75">
         <v>46340</v>
@@ -2762,10 +3446,19 @@
       <c r="F75">
         <v>-343</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>117402</v>
+      </c>
+      <c r="H75">
+        <v>50003</v>
+      </c>
+      <c r="I75">
+        <v>17122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B76">
         <v>43872</v>
@@ -2782,10 +3475,19 @@
       <c r="F76">
         <v>5627</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>127563</v>
+      </c>
+      <c r="H76">
+        <v>51367</v>
+      </c>
+      <c r="I76">
+        <v>17523</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B77">
         <v>56732</v>
@@ -2802,10 +3504,19 @@
       <c r="F77">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>127818</v>
+      </c>
+      <c r="H77">
+        <v>52759</v>
+      </c>
+      <c r="I77">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B78">
         <v>49728</v>
@@ -2822,10 +3533,19 @@
       <c r="F78">
         <v>-1887</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>132718</v>
+      </c>
+      <c r="H78">
+        <v>54180</v>
+      </c>
+      <c r="I78">
+        <v>18269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B79">
         <v>42180</v>
@@ -2842,10 +3562,19 @@
       <c r="F79">
         <v>-184</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>128672</v>
+      </c>
+      <c r="H79">
+        <v>55630</v>
+      </c>
+      <c r="I79">
+        <v>18615</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B80">
         <v>47696</v>
@@ -2862,10 +3591,19 @@
       <c r="F80">
         <v>13776</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>125545</v>
+      </c>
+      <c r="H80">
+        <v>57109</v>
+      </c>
+      <c r="I80">
+        <v>18945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B81">
         <v>59812</v>
@@ -2882,10 +3620,19 @@
       <c r="F81">
         <v>-3588</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>129763</v>
+      </c>
+      <c r="H81">
+        <v>58561</v>
+      </c>
+      <c r="I81">
+        <v>19304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>45576</v>
@@ -2902,10 +3649,19 @@
       <c r="F82">
         <v>-6473</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>130837</v>
+      </c>
+      <c r="H82">
+        <v>59986</v>
+      </c>
+      <c r="I82">
+        <v>19696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B83">
         <v>41376</v>
@@ -2922,10 +3678,19 @@
       <c r="F83">
         <v>-5148</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>120822</v>
+      </c>
+      <c r="H83">
+        <v>61383</v>
+      </c>
+      <c r="I83">
+        <v>20120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B84">
         <v>46956</v>
@@ -2942,10 +3707,19 @@
       <c r="F84">
         <v>5919</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>141835</v>
+      </c>
+      <c r="H84">
+        <v>62754</v>
+      </c>
+      <c r="I84">
+        <v>20577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B85">
         <v>59392</v>
@@ -2962,10 +3736,19 @@
       <c r="F85">
         <v>120</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>142134</v>
+      </c>
+      <c r="H85">
+        <v>64093</v>
+      </c>
+      <c r="I85">
+        <v>21032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B86">
         <v>56168</v>
@@ -2982,10 +3765,19 @@
       <c r="F86">
         <v>4604</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>143788</v>
+      </c>
+      <c r="H86">
+        <v>65402</v>
+      </c>
+      <c r="I86">
+        <v>21484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B87">
         <v>43596</v>
@@ -3002,10 +3794,19 @@
       <c r="F87">
         <v>-3421</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>137495</v>
+      </c>
+      <c r="H87">
+        <v>66679</v>
+      </c>
+      <c r="I87">
+        <v>21933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B88">
         <v>63512</v>
@@ -3022,10 +3823,19 @@
       <c r="F88">
         <v>3870</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>147941</v>
+      </c>
+      <c r="H88">
+        <v>67926</v>
+      </c>
+      <c r="I88">
+        <v>22380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B89">
         <v>71144</v>
@@ -3042,10 +3852,19 @@
       <c r="F89">
         <v>-9139</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>160244</v>
+      </c>
+      <c r="H89">
+        <v>69329</v>
+      </c>
+      <c r="I89">
+        <v>22856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B90">
         <v>66044</v>
@@ -3062,10 +3881,19 @@
       <c r="F90">
         <v>-959</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>165629</v>
+      </c>
+      <c r="H90">
+        <v>70890</v>
+      </c>
+      <c r="I90">
+        <v>23360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>81820</v>
@@ -3082,10 +3910,19 @@
       <c r="F91">
         <v>-13523</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>170102</v>
+      </c>
+      <c r="H91">
+        <v>72607</v>
+      </c>
+      <c r="I91">
+        <v>23888</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B92">
         <v>102740</v>
@@ -3102,10 +3939,19 @@
       <c r="F92">
         <v>-9202</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>182763</v>
+      </c>
+      <c r="H92">
+        <v>74482</v>
+      </c>
+      <c r="I92">
+        <v>24436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B93">
         <v>103876</v>
@@ -3122,10 +3968,19 @@
       <c r="F93">
         <v>2151</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <v>192610</v>
+      </c>
+      <c r="H93">
+        <v>76711</v>
+      </c>
+      <c r="I93">
+        <v>25091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B94">
         <v>99584</v>
@@ -3142,10 +3997,19 @@
       <c r="F94">
         <v>18525</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>192037</v>
+      </c>
+      <c r="H94">
+        <v>79295</v>
+      </c>
+      <c r="I94">
+        <v>25854</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B95">
         <v>69088</v>
@@ -3162,10 +4026,19 @@
       <c r="F95">
         <v>25942</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>206406</v>
+      </c>
+      <c r="H95">
+        <v>82233</v>
+      </c>
+      <c r="I95">
+        <v>26726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>94960</v>
@@ -3182,10 +4055,19 @@
       <c r="F96">
         <v>-20393</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>197897</v>
+      </c>
+      <c r="H96">
+        <v>85525</v>
+      </c>
+      <c r="I96">
+        <v>27709</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B97">
         <v>112536</v>
@@ -3202,10 +4084,19 @@
       <c r="F97">
         <v>-27927</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>216923</v>
+      </c>
+      <c r="H97">
+        <v>89186</v>
+      </c>
+      <c r="I97">
+        <v>28752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>92076</v>
@@ -3222,10 +4113,19 @@
       <c r="F98">
         <v>-33598</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>194879</v>
+      </c>
+      <c r="H98">
+        <v>93214</v>
+      </c>
+      <c r="I98">
+        <v>29853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>73104</v>
@@ -3242,10 +4142,19 @@
       <c r="F99">
         <v>-29147</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>214721</v>
+      </c>
+      <c r="H99">
+        <v>97611</v>
+      </c>
+      <c r="I99">
+        <v>31008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B100">
         <v>39148</v>
@@ -3262,10 +4171,19 @@
       <c r="F100">
         <v>-14591</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>173819</v>
+      </c>
+      <c r="H100">
+        <v>102375</v>
+      </c>
+      <c r="I100">
+        <v>32213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>38968</v>
@@ -3282,10 +4200,19 @@
       <c r="F101">
         <v>-16376</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>169202</v>
+      </c>
+      <c r="H101">
+        <v>106420</v>
+      </c>
+      <c r="I101">
+        <v>33234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B102">
         <v>39772</v>
@@ -3302,10 +4229,19 @@
       <c r="F102">
         <v>-10703</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>185509</v>
+      </c>
+      <c r="H102">
+        <v>109747</v>
+      </c>
+      <c r="I102">
+        <v>34076</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B103">
         <v>34728</v>
@@ -3322,10 +4258,19 @@
       <c r="F103">
         <v>-9318</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>191832</v>
+      </c>
+      <c r="H103">
+        <v>112354</v>
+      </c>
+      <c r="I103">
+        <v>34741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B104">
         <v>65388</v>
@@ -3342,10 +4287,19 @@
       <c r="F104">
         <v>-21834</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>214141</v>
+      </c>
+      <c r="H104">
+        <v>114243</v>
+      </c>
+      <c r="I104">
+        <v>35233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>69796</v>
@@ -3362,10 +4316,19 @@
       <c r="F105">
         <v>-12642</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>229799</v>
+      </c>
+      <c r="H105">
+        <v>116610</v>
+      </c>
+      <c r="I105">
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B106">
         <v>77336</v>
@@ -3382,10 +4345,19 @@
       <c r="F106">
         <v>-9092</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>236420</v>
+      </c>
+      <c r="H106">
+        <v>119456</v>
+      </c>
+      <c r="I106">
+        <v>36603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B107">
         <v>82996</v>
@@ -3402,10 +4374,19 @@
       <c r="F107">
         <v>-9041</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>232082</v>
+      </c>
+      <c r="H107">
+        <v>122779</v>
+      </c>
+      <c r="I107">
+        <v>37475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B108">
         <v>109488</v>
@@ -3422,10 +4403,19 @@
       <c r="F108">
         <v>-29356</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>247565</v>
+      </c>
+      <c r="H108">
+        <v>126580</v>
+      </c>
+      <c r="I108">
+        <v>38466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>110056</v>
@@ -3442,10 +4432,19 @@
       <c r="F109">
         <v>-10056</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>265401</v>
+      </c>
+      <c r="H109">
+        <v>130492</v>
+      </c>
+      <c r="I109">
+        <v>39521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B110">
         <v>109488</v>
@@ -3462,10 +4461,19 @@
       <c r="F110">
         <v>-1578</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>288785</v>
+      </c>
+      <c r="H110">
+        <v>134516</v>
+      </c>
+      <c r="I110">
+        <v>40642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <v>138556</v>
@@ -3482,10 +4490,19 @@
       <c r="F111">
         <v>8765</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>292037</v>
+      </c>
+      <c r="H111">
+        <v>138652</v>
+      </c>
+      <c r="I111">
+        <v>41830</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B112">
         <v>143412</v>
@@ -3502,10 +4519,19 @@
       <c r="F112">
         <v>-14273</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>298639</v>
+      </c>
+      <c r="H112">
+        <v>142898</v>
+      </c>
+      <c r="I112">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B113">
         <v>141648</v>
@@ -3522,10 +4548,19 @@
       <c r="F113">
         <v>-18649</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>327116</v>
+      </c>
+      <c r="H113">
+        <v>147498</v>
+      </c>
+      <c r="I113">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B114">
         <v>123760</v>
@@ -3542,10 +4577,19 @@
       <c r="F114">
         <v>-12681</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>339676</v>
+      </c>
+      <c r="H114">
+        <v>152452</v>
+      </c>
+      <c r="I114">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B115">
         <v>144180</v>
@@ -3562,10 +4606,19 @@
       <c r="F115">
         <v>-13569</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>361617</v>
+      </c>
+      <c r="H115">
+        <v>157759</v>
+      </c>
+      <c r="I115">
+        <v>47508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B116">
         <v>148516</v>
@@ -3582,10 +4635,19 @@
       <c r="F116">
         <v>-7957</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>374581</v>
+      </c>
+      <c r="H116">
+        <v>163420</v>
+      </c>
+      <c r="I116">
+        <v>49206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B117">
         <v>180460</v>
@@ -3602,10 +4664,19 @@
       <c r="F117">
         <v>-41363</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117">
+        <v>384337</v>
+      </c>
+      <c r="H117">
+        <v>169294</v>
+      </c>
+      <c r="I117">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B118">
         <v>170104</v>
@@ -3622,10 +4693,19 @@
       <c r="F118">
         <v>-30162</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118">
+        <v>389101</v>
+      </c>
+      <c r="H118">
+        <v>175381</v>
+      </c>
+      <c r="I118">
+        <v>52742</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B119">
         <v>141880</v>
@@ -3642,10 +4722,19 @@
       <c r="F119">
         <v>-35920</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>394681</v>
+      </c>
+      <c r="H119">
+        <v>181680</v>
+      </c>
+      <c r="I119">
+        <v>54581</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B120">
         <v>161140</v>
@@ -3662,10 +4751,19 @@
       <c r="F120">
         <v>-52559</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120">
+        <v>400840</v>
+      </c>
+      <c r="H120">
+        <v>188193</v>
+      </c>
+      <c r="I120">
+        <v>56467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B121">
         <v>98376</v>
@@ -3682,10 +4780,19 @@
       <c r="F121">
         <v>-54311</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>380569</v>
+      </c>
+      <c r="H121">
+        <v>195065</v>
+      </c>
+      <c r="I121">
+        <v>58368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B122">
         <v>108880</v>
@@ -3702,10 +4809,19 @@
       <c r="F122">
         <v>-51780</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>352479</v>
+      </c>
+      <c r="H122">
+        <v>202296</v>
+      </c>
+      <c r="I122">
+        <v>60284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B123">
         <v>172776</v>
@@ -3722,10 +4838,19 @@
       <c r="F123">
         <v>-18684</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>406527</v>
+      </c>
+      <c r="H123">
+        <v>209887</v>
+      </c>
+      <c r="I123">
+        <v>62215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B124">
         <v>141820</v>
@@ -3742,10 +4867,19 @@
       <c r="F124">
         <v>-3219</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>460977</v>
+      </c>
+      <c r="H124">
+        <v>217837</v>
+      </c>
+      <c r="I124">
+        <v>64161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B125">
         <v>229096</v>
@@ -3762,10 +4896,19 @@
       <c r="F125">
         <v>9078</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>456639</v>
+      </c>
+      <c r="H125">
+        <v>225516</v>
+      </c>
+      <c r="I125">
+        <v>66059</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B126">
         <v>205360</v>
@@ -3782,10 +4925,19 @@
       <c r="F126">
         <v>20832</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>510656</v>
+      </c>
+      <c r="H126">
+        <v>232923</v>
+      </c>
+      <c r="I126">
+        <v>67914</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B127">
         <v>183900</v>
@@ -3802,10 +4954,19 @@
       <c r="F127">
         <v>5694</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>496803</v>
+      </c>
+      <c r="H127">
+        <v>240060</v>
+      </c>
+      <c r="I127">
+        <v>69730</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B128">
         <v>216932</v>
@@ -3822,10 +4983,19 @@
       <c r="F128">
         <v>-44667</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128">
+        <v>442702</v>
+      </c>
+      <c r="H128">
+        <v>246926</v>
+      </c>
+      <c r="I128">
+        <v>71509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B129">
         <v>184272</v>
@@ -3842,10 +5012,19 @@
       <c r="F129">
         <v>-69265</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>445568</v>
+      </c>
+      <c r="H129">
+        <v>252454</v>
+      </c>
+      <c r="I129">
+        <v>72868</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B130">
         <v>185480</v>
@@ -3862,10 +5041,19 @@
       <c r="F130">
         <v>-66502</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130">
+        <v>442775</v>
+      </c>
+      <c r="H130">
+        <v>256644</v>
+      </c>
+      <c r="I130">
+        <v>73797</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B131">
         <v>71044</v>
@@ -3882,10 +5070,19 @@
       <c r="F131">
         <v>-52817</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131">
+        <v>399665</v>
+      </c>
+      <c r="H131">
+        <v>259495</v>
+      </c>
+      <c r="I131">
+        <v>74293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B132">
         <v>110164</v>
@@ -3902,10 +5099,19 @@
       <c r="F132">
         <v>-51929</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132">
+        <v>389005</v>
+      </c>
+      <c r="H132">
+        <v>261009</v>
+      </c>
+      <c r="I132">
+        <v>74353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B133">
         <v>153728</v>
@@ -3922,10 +5128,19 @@
       <c r="F133">
         <v>-50464</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133">
+        <v>436780</v>
+      </c>
+      <c r="H133">
+        <v>263057</v>
+      </c>
+      <c r="I133">
+        <v>74567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B134">
         <v>197108</v>
@@ -3942,10 +5157,19 @@
       <c r="F134">
         <v>-63023</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134">
+        <v>449337</v>
+      </c>
+      <c r="H134">
+        <v>265640</v>
+      </c>
+      <c r="I134">
+        <v>74933</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B135">
         <v>201892</v>
@@ -3962,10 +5186,19 @@
       <c r="F135">
         <v>-44238</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135">
+        <v>498675</v>
+      </c>
+      <c r="H135">
+        <v>268758</v>
+      </c>
+      <c r="I135">
+        <v>75446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B136">
         <v>285004</v>
@@ -3982,10 +5215,19 @@
       <c r="F136">
         <v>-33468</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136">
+        <v>566192</v>
+      </c>
+      <c r="H136">
+        <v>272411</v>
+      </c>
+      <c r="I136">
+        <v>76105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B137">
         <v>350412</v>
@@ -4002,10 +5244,19 @@
       <c r="F137">
         <v>-67887</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>589939</v>
+      </c>
+      <c r="H137">
+        <v>276489</v>
+      </c>
+      <c r="I137">
+        <v>76832</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B138">
         <v>306120</v>
@@ -4022,10 +5273,19 @@
       <c r="F138">
         <v>-75033</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138">
+        <v>605737</v>
+      </c>
+      <c r="H138">
+        <v>280991</v>
+      </c>
+      <c r="I138">
+        <v>77627</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B139">
         <v>341632</v>
@@ -4042,10 +5302,19 @@
       <c r="F139">
         <v>-67694</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>593155</v>
+      </c>
+      <c r="H139">
+        <v>285917</v>
+      </c>
+      <c r="I139">
+        <v>78490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B140">
         <v>263170</v>
@@ -4062,10 +5331,19 @@
       <c r="F140">
         <v>-50386</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140">
+        <v>566196</v>
+      </c>
+      <c r="H140">
+        <v>291268</v>
+      </c>
+      <c r="I140">
+        <v>79421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B141">
         <v>263809</v>
@@ -4082,10 +5360,19 @@
       <c r="F141">
         <v>-53950</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>580025</v>
+      </c>
+      <c r="H141">
+        <v>296491</v>
+      </c>
+      <c r="I141">
+        <v>80429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B142">
         <v>215913</v>
@@ -4102,10 +5389,19 @@
       <c r="F142">
         <v>-35227</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>574861</v>
+      </c>
+      <c r="H142">
+        <v>301588</v>
+      </c>
+      <c r="I142">
+        <v>81517</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B143">
         <v>276048</v>
@@ -4122,10 +5418,19 @@
       <c r="F143">
         <v>61188</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>598499</v>
+      </c>
+      <c r="H143">
+        <v>306557</v>
+      </c>
+      <c r="I143">
+        <v>82689</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B144">
         <v>257025</v>
@@ -4142,10 +5447,19 @@
       <c r="F144">
         <v>-22330</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>591447</v>
+      </c>
+      <c r="H144">
+        <v>311399</v>
+      </c>
+      <c r="I144">
+        <v>83946</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B145">
         <v>294663</v>
@@ -4162,10 +5476,19 @@
       <c r="F145">
         <v>4681</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145">
+        <v>577619</v>
+      </c>
+      <c r="H145">
+        <v>315925</v>
+      </c>
+      <c r="I145">
+        <v>85166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B146">
         <v>303718</v>
@@ -4182,10 +5505,19 @@
       <c r="F146">
         <v>870</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146">
+        <v>543721</v>
+      </c>
+      <c r="H146">
+        <v>320135</v>
+      </c>
+      <c r="I146">
+        <v>86348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B147">
         <v>324106</v>
@@ -4202,10 +5534,19 @@
       <c r="F147">
         <v>-22089</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>546998</v>
+      </c>
+      <c r="H147">
+        <v>324030</v>
+      </c>
+      <c r="I147">
+        <v>87493</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B148">
         <v>158613</v>
@@ -4222,10 +5563,19 @@
       <c r="F148">
         <v>-40951</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>569927</v>
+      </c>
+      <c r="H148">
+        <v>327609</v>
+      </c>
+      <c r="I148">
+        <v>88600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B149">
         <v>211322</v>
@@ -4242,10 +5592,19 @@
       <c r="F149">
         <v>-23208</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149">
+        <v>566296</v>
+      </c>
+      <c r="H149">
+        <v>331874</v>
+      </c>
+      <c r="I149">
+        <v>89792</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B150">
         <v>258334</v>
@@ -4262,10 +5621,19 @@
       <c r="F150">
         <v>-23850</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150">
+        <v>563159</v>
+      </c>
+      <c r="H150">
+        <v>336824</v>
+      </c>
+      <c r="I150">
+        <v>91068</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B151">
         <v>266419</v>
@@ -4282,10 +5650,19 @@
       <c r="F151">
         <v>-22103</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151">
+        <v>627298</v>
+      </c>
+      <c r="H151">
+        <v>342461</v>
+      </c>
+      <c r="I151">
+        <v>92428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B152">
         <v>306733</v>
@@ -4302,10 +5679,19 @@
       <c r="F152">
         <v>-36578</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152">
+        <v>587330</v>
+      </c>
+      <c r="H152">
+        <v>348784</v>
+      </c>
+      <c r="I152">
+        <v>93870</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B153">
         <v>309017</v>
@@ -4322,10 +5708,19 @@
       <c r="F153">
         <v>-11251</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153">
+        <v>601743</v>
+      </c>
+      <c r="H153">
+        <v>354875</v>
+      </c>
+      <c r="I153">
+        <v>95313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B154">
         <v>317158</v>
@@ -4342,10 +5737,19 @@
       <c r="F154">
         <v>-35601</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154">
+        <v>609811</v>
+      </c>
+      <c r="H154">
+        <v>360733</v>
+      </c>
+      <c r="I154">
+        <v>96757</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B155">
         <v>301140</v>
@@ -4362,10 +5766,19 @@
       <c r="F155">
         <v>-50688</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155">
+        <v>621606</v>
+      </c>
+      <c r="H155">
+        <v>366359</v>
+      </c>
+      <c r="I155">
+        <v>98205</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B156">
         <v>244249</v>
@@ -4382,10 +5795,19 @@
       <c r="F156">
         <v>-21995</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156">
+        <v>660821</v>
+      </c>
+      <c r="H156">
+        <v>371753</v>
+      </c>
+      <c r="I156">
+        <v>99659</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B157">
         <v>284349</v>
@@ -4402,10 +5824,19 @@
       <c r="F157">
         <v>-27388</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157">
+        <v>659978</v>
+      </c>
+      <c r="H157">
+        <v>377232</v>
+      </c>
+      <c r="I157">
+        <v>100989</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B158">
         <v>159748</v>
@@ -4422,10 +5853,19 @@
       <c r="F158">
         <v>-45902</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158">
+        <v>651084</v>
+      </c>
+      <c r="H158">
+        <v>382795</v>
+      </c>
+      <c r="I158">
+        <v>102190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B159">
         <v>168850</v>
@@ -4442,10 +5882,19 @@
       <c r="F159">
         <v>-42527</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159">
+        <v>655558</v>
+      </c>
+      <c r="H159">
+        <v>388444</v>
+      </c>
+      <c r="I159">
+        <v>103259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B160">
         <v>218261</v>
@@ -4462,10 +5911,19 @@
       <c r="F160">
         <v>3859</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160">
+        <v>665908</v>
+      </c>
+      <c r="H160">
+        <v>394178</v>
+      </c>
+      <c r="I160">
+        <v>104191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B161">
         <v>140547</v>
@@ -4482,10 +5940,19 @@
       <c r="F161">
         <v>30147</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161">
+        <v>680640</v>
+      </c>
+      <c r="H161">
+        <v>399981</v>
+      </c>
+      <c r="I161">
+        <v>105044</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B162">
         <v>103318</v>
@@ -4502,10 +5969,19 @@
       <c r="F162">
         <v>34057</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162">
+        <v>675561</v>
+      </c>
+      <c r="H162">
+        <v>405854</v>
+      </c>
+      <c r="I162">
+        <v>105818</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B163">
         <v>63111</v>
@@ -4522,10 +5998,19 @@
       <c r="F163">
         <v>16323</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163">
+        <v>633090</v>
+      </c>
+      <c r="H163">
+        <v>411795</v>
+      </c>
+      <c r="I163">
+        <v>106512</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B164">
         <v>-66180</v>
@@ -4542,10 +6027,19 @@
       <c r="F164">
         <v>144</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164">
+        <v>620020</v>
+      </c>
+      <c r="H164">
+        <v>417807</v>
+      </c>
+      <c r="I164">
+        <v>107123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B165">
         <v>288</v>
@@ -4562,10 +6056,19 @@
       <c r="F165">
         <v>28847</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165">
+        <v>615593</v>
+      </c>
+      <c r="H165">
+        <v>422871</v>
+      </c>
+      <c r="I165">
+        <v>107572</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B166">
         <v>-123705</v>
@@ -4582,10 +6085,19 @@
       <c r="F166">
         <v>48234</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166">
+        <v>629281</v>
+      </c>
+      <c r="H166">
+        <v>426988</v>
+      </c>
+      <c r="I166">
+        <v>107863</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B167">
         <v>-132286</v>
@@ -4602,10 +6114,19 @@
       <c r="F167">
         <v>30225</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167">
+        <v>656881</v>
+      </c>
+      <c r="H167">
+        <v>430159</v>
+      </c>
+      <c r="I167">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B168">
         <v>-4540</v>
@@ -4622,10 +6143,19 @@
       <c r="F168">
         <v>19177</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168">
+        <v>623787</v>
+      </c>
+      <c r="H168">
+        <v>432382</v>
+      </c>
+      <c r="I168">
+        <v>107990</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B169">
         <v>-25780</v>
@@ -4642,10 +6172,19 @@
       <c r="F169">
         <v>47312</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169">
+        <v>666319</v>
+      </c>
+      <c r="H169">
+        <v>435419</v>
+      </c>
+      <c r="I169">
+        <v>108193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B170">
         <v>8134</v>
@@ -4662,10 +6201,19 @@
       <c r="F170">
         <v>50592</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170">
+        <v>673832</v>
+      </c>
+      <c r="H170">
+        <v>439271</v>
+      </c>
+      <c r="I170">
+        <v>108605</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B171">
         <v>-19676</v>
@@ -4682,10 +6230,19 @@
       <c r="F171">
         <v>1280</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171">
+        <v>684293</v>
+      </c>
+      <c r="H171">
+        <v>443936</v>
+      </c>
+      <c r="I171">
+        <v>109222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B172">
         <v>65817</v>
@@ -4702,10 +6259,19 @@
       <c r="F172">
         <v>48064</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172">
+        <v>715408</v>
+      </c>
+      <c r="H172">
+        <v>449415</v>
+      </c>
+      <c r="I172">
+        <v>110037</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B173">
         <v>137717</v>
@@ -4722,10 +6288,19 @@
       <c r="F173">
         <v>49814</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173">
+        <v>719298</v>
+      </c>
+      <c r="H173">
+        <v>455018</v>
+      </c>
+      <c r="I173">
+        <v>110870</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B174">
         <v>144569</v>
@@ -4742,10 +6317,19 @@
       <c r="F174">
         <v>41772</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174">
+        <v>702779</v>
+      </c>
+      <c r="H174">
+        <v>460746</v>
+      </c>
+      <c r="I174">
+        <v>111721</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B175">
         <v>106523</v>
@@ -4762,10 +6346,19 @@
       <c r="F175">
         <v>39421</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175">
+        <v>740083</v>
+      </c>
+      <c r="H175">
+        <v>466597</v>
+      </c>
+      <c r="I175">
+        <v>112594</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B176">
         <v>214262</v>
@@ -4782,10 +6375,19 @@
       <c r="F176">
         <v>26360</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176">
+        <v>777830</v>
+      </c>
+      <c r="H176">
+        <v>472573</v>
+      </c>
+      <c r="I176">
+        <v>113491</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B177">
         <v>185345</v>
@@ -4802,10 +6404,19 @@
       <c r="F177">
         <v>85725</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177">
+        <v>827738</v>
+      </c>
+      <c r="H177">
+        <v>479844</v>
+      </c>
+      <c r="I177">
+        <v>114553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B178">
         <v>204025</v>
@@ -4822,10 +6433,19 @@
       <c r="F178">
         <v>42712</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178">
+        <v>813464</v>
+      </c>
+      <c r="H178">
+        <v>488412</v>
+      </c>
+      <c r="I178">
+        <v>115776</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B179">
         <v>213466</v>
@@ -4842,10 +6462,19 @@
       <c r="F179">
         <v>25722</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179">
+        <v>879622</v>
+      </c>
+      <c r="H179">
+        <v>498275</v>
+      </c>
+      <c r="I179">
+        <v>117154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B180">
         <v>280606</v>
@@ -4862,10 +6491,19 @@
       <c r="F180">
         <v>29673</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180">
+        <v>906405</v>
+      </c>
+      <c r="H180">
+        <v>509434</v>
+      </c>
+      <c r="I180">
+        <v>118683</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B181">
         <v>297737</v>
@@ -4882,10 +6520,19 @@
       <c r="F181">
         <v>37364</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181">
+        <v>893567</v>
+      </c>
+      <c r="H181">
+        <v>519602</v>
+      </c>
+      <c r="I181">
+        <v>120049</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B182">
         <v>189697</v>
@@ -4902,10 +6549,19 @@
       <c r="F182">
         <v>9702</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182">
+        <v>911119</v>
+      </c>
+      <c r="H182">
+        <v>528780</v>
+      </c>
+      <c r="I182">
+        <v>121260</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B183">
         <v>181974</v>
@@ -4922,10 +6578,19 @@
       <c r="F183">
         <v>782</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183">
+        <v>903957</v>
+      </c>
+      <c r="H183">
+        <v>536967</v>
+      </c>
+      <c r="I183">
+        <v>122323</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B184">
         <v>234272</v>
@@ -4942,10 +6607,19 @@
       <c r="F184">
         <v>-28660</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184">
+        <v>908355</v>
+      </c>
+      <c r="H184">
+        <v>544164</v>
+      </c>
+      <c r="I184">
+        <v>123244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B185">
         <v>292502</v>
@@ -4962,10 +6636,19 @@
       <c r="F185">
         <v>27833</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185">
+        <v>949304</v>
+      </c>
+      <c r="H185">
+        <v>552331</v>
+      </c>
+      <c r="I185">
+        <v>124261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B186">
         <v>247774</v>
@@ -4982,10 +6665,19 @@
       <c r="F186">
         <v>-166</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186">
+        <v>996548</v>
+      </c>
+      <c r="H186">
+        <v>561467</v>
+      </c>
+      <c r="I186">
+        <v>125367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B187">
         <v>154697</v>
@@ -5002,10 +6694,19 @@
       <c r="F187">
         <v>-12180</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187">
+        <v>1014274</v>
+      </c>
+      <c r="H187">
+        <v>571574</v>
+      </c>
+      <c r="I187">
+        <v>126557</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B188">
         <v>301259</v>
@@ -5022,10 +6723,19 @@
       <c r="F188">
         <v>-41693</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188">
+        <v>1035958</v>
+      </c>
+      <c r="H188">
+        <v>582650</v>
+      </c>
+      <c r="I188">
+        <v>127825</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B189">
         <v>358196</v>
@@ -5042,10 +6752,19 @@
       <c r="F189">
         <v>-14869</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189">
+        <v>1120520</v>
+      </c>
+      <c r="H189">
+        <v>593385</v>
+      </c>
+      <c r="I189">
+        <v>129187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B190">
         <v>494811</v>
@@ -5062,10 +6781,19 @@
       <c r="F190">
         <v>-24952</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190">
+        <v>1113523</v>
+      </c>
+      <c r="H190">
+        <v>603780</v>
+      </c>
+      <c r="I190">
+        <v>130646</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B191">
         <v>370521</v>
@@ -5082,10 +6810,19 @@
       <c r="F191">
         <v>624</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191">
+        <v>1113761</v>
+      </c>
+      <c r="H191">
+        <v>613833</v>
+      </c>
+      <c r="I191">
+        <v>132210</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B192">
         <v>571791</v>
@@ -5102,10 +6839,19 @@
       <c r="F192">
         <v>-46338</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192">
+        <v>1161714</v>
+      </c>
+      <c r="H192">
+        <v>623545</v>
+      </c>
+      <c r="I192">
+        <v>133883</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B193">
         <v>610542</v>
@@ -5122,10 +6868,19 @@
       <c r="F193">
         <v>-41550</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193">
+        <v>1125046</v>
+      </c>
+      <c r="H193">
+        <v>633301</v>
+      </c>
+      <c r="I193">
+        <v>135680</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B194">
         <v>520652</v>
@@ -5142,10 +6897,19 @@
       <c r="F194">
         <v>-12253</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194">
+        <v>1148014</v>
+      </c>
+      <c r="H194">
+        <v>643102</v>
+      </c>
+      <c r="I194">
+        <v>137604</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B195">
         <v>529902</v>
@@ -5162,10 +6926,19 @@
       <c r="F195">
         <v>-42466</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195">
+        <v>1177421</v>
+      </c>
+      <c r="H195">
+        <v>652947</v>
+      </c>
+      <c r="I195">
+        <v>139655</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B196">
         <v>648407</v>
@@ -5182,10 +6955,19 @@
       <c r="F196">
         <v>-37579</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196">
+        <v>1231048</v>
+      </c>
+      <c r="H196">
+        <v>662837</v>
+      </c>
+      <c r="I196">
+        <v>141838</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B197">
         <v>428148</v>
@@ -5202,10 +6984,19 @@
       <c r="F197">
         <v>-71084</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197">
+        <v>1223321</v>
+      </c>
+      <c r="H197">
+        <v>675008</v>
+      </c>
+      <c r="I197">
+        <v>144216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B198">
         <v>693991</v>
@@ -5222,10 +7013,19 @@
       <c r="F198">
         <v>-74667</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198">
+        <v>1252873</v>
+      </c>
+      <c r="H198">
+        <v>689462</v>
+      </c>
+      <c r="I198">
+        <v>146468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B199">
         <v>498782</v>
@@ -5242,10 +7042,19 @@
       <c r="F199">
         <v>-93510</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199">
+        <v>1304282</v>
+      </c>
+      <c r="H199">
+        <v>706197</v>
+      </c>
+      <c r="I199">
+        <v>148978</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B200">
         <v>663731</v>
@@ -5262,10 +7071,19 @@
       <c r="F200">
         <v>-32847</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200">
+        <v>1286084</v>
+      </c>
+      <c r="H200">
+        <v>725215</v>
+      </c>
+      <c r="I200">
+        <v>152075</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B201">
         <v>672853</v>
@@ -5282,10 +7100,19 @@
       <c r="F201">
         <v>-22669</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201">
+        <v>1404562</v>
+      </c>
+      <c r="H201">
+        <v>739479</v>
+      </c>
+      <c r="I201">
+        <v>155040</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B202">
         <v>414335</v>
@@ -5302,10 +7129,19 @@
       <c r="F202">
         <v>21418</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202">
+        <v>1388403</v>
+      </c>
+      <c r="H202">
+        <v>748988</v>
+      </c>
+      <c r="I202">
+        <v>157806</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B203">
         <v>452913</v>
@@ -5322,10 +7158,19 @@
       <c r="F203">
         <v>-43099</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203">
+        <v>1388175</v>
+      </c>
+      <c r="H203">
+        <v>753742</v>
+      </c>
+      <c r="I203">
+        <v>160365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B204">
         <v>421281</v>
@@ -5342,10 +7187,19 @@
       <c r="F204">
         <v>8596</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204">
+        <v>1281704</v>
+      </c>
+      <c r="H204">
+        <v>770474</v>
+      </c>
+      <c r="I204">
+        <v>163075</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B205">
         <v>437404</v>
@@ -5362,10 +7216,19 @@
       <c r="F205">
         <v>-18828</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205">
+        <v>1274315</v>
+      </c>
+      <c r="H205">
+        <v>783802</v>
+      </c>
+      <c r="I205">
+        <v>165765</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B206">
         <v>284773</v>
@@ -5382,10 +7245,19 @@
       <c r="F206">
         <v>-28807</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206">
+        <v>1245897</v>
+      </c>
+      <c r="H206">
+        <v>790336</v>
+      </c>
+      <c r="I206">
+        <v>167854</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B207">
         <v>218867</v>
@@ -5402,10 +7274,19 @@
       <c r="F207">
         <v>-27587</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207">
+        <v>1136811</v>
+      </c>
+      <c r="H207">
+        <v>796699</v>
+      </c>
+      <c r="I207">
+        <v>169601</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B208">
         <v>261089</v>
@@ -5422,10 +7303,19 @@
       <c r="F208">
         <v>-63474</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208">
+        <v>1182172</v>
+      </c>
+      <c r="H208">
+        <v>799845</v>
+      </c>
+      <c r="I208">
+        <v>171097</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B209">
         <v>108753</v>
@@ -5442,10 +7332,19 @@
       <c r="F209">
         <v>-83545</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209">
+        <v>1184361</v>
+      </c>
+      <c r="H209">
+        <v>801817</v>
+      </c>
+      <c r="I209">
+        <v>173292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B210">
         <v>90013</v>
@@ -5462,10 +7361,19 @@
       <c r="F210">
         <v>-78844</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210">
+        <v>1180395</v>
+      </c>
+      <c r="H210">
+        <v>806901</v>
+      </c>
+      <c r="I210">
+        <v>175681</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B211">
         <v>159441</v>
@@ -5482,10 +7390,19 @@
       <c r="F211">
         <v>-62157</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211">
+        <v>1179992</v>
+      </c>
+      <c r="H211">
+        <v>810109</v>
+      </c>
+      <c r="I211">
+        <v>178379</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B212">
         <v>106658</v>
@@ -5502,10 +7419,19 @@
       <c r="F212">
         <v>51677</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212">
+        <v>1186560</v>
+      </c>
+      <c r="H212">
+        <v>811369</v>
+      </c>
+      <c r="I212">
+        <v>180680</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B213">
         <v>51104</v>
@@ -5522,10 +7448,19 @@
       <c r="F213">
         <v>57405</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213">
+        <v>1184962</v>
+      </c>
+      <c r="H213">
+        <v>814897</v>
+      </c>
+      <c r="I213">
+        <v>182235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B214">
         <v>184022</v>
@@ -5542,10 +7477,19 @@
       <c r="F214">
         <v>60740</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214">
+        <v>1223139</v>
+      </c>
+      <c r="H214">
+        <v>820280</v>
+      </c>
+      <c r="I214">
+        <v>184440</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B215">
         <v>-32544</v>
@@ -5562,10 +7506,19 @@
       <c r="F215">
         <v>59710</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215">
+        <v>1267958</v>
+      </c>
+      <c r="H215">
+        <v>825261</v>
+      </c>
+      <c r="I215">
+        <v>187202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B216">
         <v>460991</v>
@@ -5582,10 +7535,19 @@
       <c r="F216">
         <v>44497</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216">
+        <v>1251543</v>
+      </c>
+      <c r="H216">
+        <v>834534</v>
+      </c>
+      <c r="I216">
+        <v>190590</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B217">
         <v>211362</v>
@@ -5602,10 +7564,19 @@
       <c r="F217">
         <v>105281</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217">
+        <v>1318715</v>
+      </c>
+      <c r="H217">
+        <v>843800</v>
+      </c>
+      <c r="I217">
+        <v>194273</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B218">
         <v>472877</v>
@@ -5622,10 +7593,19 @@
       <c r="F218">
         <v>70564</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218">
+        <v>1347363</v>
+      </c>
+      <c r="H218">
+        <v>853984</v>
+      </c>
+      <c r="I218">
+        <v>198188</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B219">
         <v>447058</v>
@@ -5642,10 +7622,19 @@
       <c r="F219">
         <v>78117</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219">
+        <v>1389889</v>
+      </c>
+      <c r="H219">
+        <v>868578</v>
+      </c>
+      <c r="I219">
+        <v>202524</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B220">
         <v>581158</v>
@@ -5662,10 +7651,19 @@
       <c r="F220">
         <v>-14799</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220">
+        <v>1471989</v>
+      </c>
+      <c r="H220">
+        <v>885174</v>
+      </c>
+      <c r="I220">
+        <v>207238</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B221">
         <v>533436</v>
@@ -5682,10 +7680,19 @@
       <c r="F221">
         <v>-37458</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221">
+        <v>1435683</v>
+      </c>
+      <c r="H221">
+        <v>901071</v>
+      </c>
+      <c r="I221">
+        <v>211657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B222">
         <v>553714</v>
@@ -5702,10 +7709,19 @@
       <c r="F222">
         <v>-91623</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222">
+        <v>1462142</v>
+      </c>
+      <c r="H222">
+        <v>916500</v>
+      </c>
+      <c r="I222">
+        <v>216802</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B223">
         <v>765436</v>
@@ -5722,10 +7738,19 @@
       <c r="F223">
         <v>-62581</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223">
+        <v>1552976</v>
+      </c>
+      <c r="H223">
+        <v>936935</v>
+      </c>
+      <c r="I223">
+        <v>221983</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B224">
         <v>817372</v>
@@ -5742,10 +7767,19 @@
       <c r="F224">
         <v>18131</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224">
+        <v>1604486</v>
+      </c>
+      <c r="H224">
+        <v>953461</v>
+      </c>
+      <c r="I224">
+        <v>226830</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B225">
         <v>798753</v>
@@ -5762,10 +7796,19 @@
       <c r="F225">
         <v>1112</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225">
+        <v>1632904</v>
+      </c>
+      <c r="H225">
+        <v>970487</v>
+      </c>
+      <c r="I225">
+        <v>230857</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B226">
         <v>552741</v>
@@ -5782,10 +7825,19 @@
       <c r="F226">
         <v>-417</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226">
+        <v>1646093</v>
+      </c>
+      <c r="H226">
+        <v>987294</v>
+      </c>
+      <c r="I226">
+        <v>234507</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B227">
         <v>1045146</v>
@@ -5802,10 +7854,19 @@
       <c r="F227">
         <v>-13555</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227">
+        <v>1684387</v>
+      </c>
+      <c r="H227">
+        <v>1006278</v>
+      </c>
+      <c r="I227">
+        <v>238386</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B228">
         <v>937390</v>
@@ -5822,10 +7883,19 @@
       <c r="F228">
         <v>-50244</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228">
+        <v>1634659</v>
+      </c>
+      <c r="H228">
+        <v>1023362</v>
+      </c>
+      <c r="I228">
+        <v>242326</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B229">
         <v>1180652</v>
@@ -5842,10 +7912,19 @@
       <c r="F229">
         <v>-38383</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229">
+        <v>1703795</v>
+      </c>
+      <c r="H229">
+        <v>1035817</v>
+      </c>
+      <c r="I229">
+        <v>244690</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B230">
         <v>1265875</v>
@@ -5862,10 +7941,19 @@
       <c r="F230">
         <v>-45597</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230">
+        <v>1764748</v>
+      </c>
+      <c r="H230">
+        <v>1045565</v>
+      </c>
+      <c r="I230">
+        <v>246578</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B231">
         <v>1079298</v>
@@ -5882,10 +7970,19 @@
       <c r="F231">
         <v>-66856</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231">
+        <v>1719872</v>
+      </c>
+      <c r="H231">
+        <v>1056312</v>
+      </c>
+      <c r="I231">
+        <v>248752</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B232">
         <v>879777</v>
@@ -5902,10 +7999,19 @@
       <c r="F232">
         <v>-352452</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232">
+        <v>1704490</v>
+      </c>
+      <c r="H232">
+        <v>1072302</v>
+      </c>
+      <c r="I232">
+        <v>251504</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B233">
         <v>768194</v>
@@ -5922,10 +8028,19 @@
       <c r="F233">
         <v>-306909</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233">
+        <v>1706762</v>
+      </c>
+      <c r="H233">
+        <v>1086948</v>
+      </c>
+      <c r="I233">
+        <v>253551</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B234">
         <v>598657</v>
@@ -5942,10 +8057,19 @@
       <c r="F234">
         <v>-312754</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234">
+        <v>1670431</v>
+      </c>
+      <c r="H234">
+        <v>1104253</v>
+      </c>
+      <c r="I234">
+        <v>255932</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B235">
         <v>102664</v>
@@ -5962,10 +8086,19 @@
       <c r="F235">
         <v>-298650</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235">
+        <v>1581091</v>
+      </c>
+      <c r="H235">
+        <v>1112288</v>
+      </c>
+      <c r="I235">
+        <v>256908</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B236">
         <v>-287273</v>
@@ -5982,10 +8115,19 @@
       <c r="F236">
         <v>-140151</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236">
+        <v>1344697</v>
+      </c>
+      <c r="H236">
+        <v>1104967</v>
+      </c>
+      <c r="I236">
+        <v>256359</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B237">
         <v>-385968</v>
@@ -6002,10 +8144,19 @@
       <c r="F237">
         <v>-90782</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237">
+        <v>1205041</v>
+      </c>
+      <c r="H237">
+        <v>1091407</v>
+      </c>
+      <c r="I237">
+        <v>253515</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B238">
         <v>-590568</v>
@@ -6022,10 +8173,19 @@
       <c r="F238">
         <v>-104303</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238">
+        <v>1153065</v>
+      </c>
+      <c r="H238">
+        <v>1084095</v>
+      </c>
+      <c r="I238">
+        <v>251170</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B239">
         <v>-557355</v>
@@ -6042,10 +8202,19 @@
       <c r="F239">
         <v>-97427</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239">
+        <v>1291979</v>
+      </c>
+      <c r="H239">
+        <v>1087418</v>
+      </c>
+      <c r="I239">
+        <v>251034</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B240">
         <v>-160996</v>
@@ -6062,10 +8231,19 @@
       <c r="F240">
         <v>181665</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240">
+        <v>1367567</v>
+      </c>
+      <c r="H240">
+        <v>1087788</v>
+      </c>
+      <c r="I240">
+        <v>250204</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B241">
         <v>-342192</v>
@@ -6082,10 +8260,19 @@
       <c r="F241">
         <v>161112</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241">
+        <v>1459248</v>
+      </c>
+      <c r="H241">
+        <v>1091621</v>
+      </c>
+      <c r="I241">
+        <v>249989</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B242">
         <v>191946</v>
@@ -6102,10 +8289,19 @@
       <c r="F242">
         <v>159157</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242">
+        <v>1552927</v>
+      </c>
+      <c r="H242">
+        <v>1095052</v>
+      </c>
+      <c r="I242">
+        <v>251678</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B243">
         <v>-49546</v>
@@ -6122,10 +8318,19 @@
       <c r="F243">
         <v>163508</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243">
+        <v>1542490</v>
+      </c>
+      <c r="H243">
+        <v>1103859</v>
+      </c>
+      <c r="I243">
+        <v>255348</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B244">
         <v>163023</v>
@@ -6142,10 +8347,19 @@
       <c r="F244">
         <v>229892</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244">
+        <v>1518884</v>
+      </c>
+      <c r="H244">
+        <v>1118789</v>
+      </c>
+      <c r="I244">
+        <v>259793</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B245">
         <v>332303</v>
@@ -6162,10 +8376,19 @@
       <c r="F245">
         <v>226917</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245">
+        <v>1598579</v>
+      </c>
+      <c r="H245">
+        <v>1134989</v>
+      </c>
+      <c r="I245">
+        <v>264085</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B246">
         <v>348645</v>
@@ -6182,10 +8405,19 @@
       <c r="F246">
         <v>231333</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246">
+        <v>1593647</v>
+      </c>
+      <c r="H246">
+        <v>1147353</v>
+      </c>
+      <c r="I246">
+        <v>267189</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B247">
         <v>347193</v>
@@ -6202,10 +8434,19 @@
       <c r="F247">
         <v>249352</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247">
+        <v>1743060</v>
+      </c>
+      <c r="H247">
+        <v>1155734</v>
+      </c>
+      <c r="I247">
+        <v>268920</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B248">
         <v>407321</v>
@@ -6222,10 +8463,19 @@
       <c r="F248">
         <v>98764</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248">
+        <v>1778245</v>
+      </c>
+      <c r="H248">
+        <v>1170315</v>
+      </c>
+      <c r="I248">
+        <v>269792</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B249">
         <v>394014</v>
@@ -6242,10 +8492,19 @@
       <c r="F249">
         <v>87778</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249">
+        <v>1841326</v>
+      </c>
+      <c r="H249">
+        <v>1181976</v>
+      </c>
+      <c r="I249">
+        <v>271675</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B250">
         <v>437620</v>
@@ -6262,10 +8521,19 @@
       <c r="F250">
         <v>85027</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250">
+        <v>1824886</v>
+      </c>
+      <c r="H250">
+        <v>1192118</v>
+      </c>
+      <c r="I250">
+        <v>274021</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B251">
         <v>712130</v>
@@ -6282,10 +8550,19 @@
       <c r="F251">
         <v>63306</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251">
+        <v>1794714</v>
+      </c>
+      <c r="H251">
+        <v>1200375</v>
+      </c>
+      <c r="I251">
+        <v>276462</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B252">
         <v>391742</v>
@@ -6302,10 +8579,19 @@
       <c r="F252">
         <v>191887</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252">
+        <v>1794227</v>
+      </c>
+      <c r="H252">
+        <v>1212209</v>
+      </c>
+      <c r="I252">
+        <v>279286</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B253">
         <v>548889</v>
@@ -6322,10 +8608,19 @@
       <c r="F253">
         <v>171973</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253">
+        <v>1861867</v>
+      </c>
+      <c r="H253">
+        <v>1226179</v>
+      </c>
+      <c r="I253">
+        <v>282878</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B254">
         <v>810311</v>
@@ -6342,10 +8637,19 @@
       <c r="F254">
         <v>178354</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254">
+        <v>1943598</v>
+      </c>
+      <c r="H254">
+        <v>1238435</v>
+      </c>
+      <c r="I254">
+        <v>286007</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B255">
         <v>468202</v>
@@ -6362,10 +8666,19 @@
       <c r="F255">
         <v>172338</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255">
+        <v>1947532</v>
+      </c>
+      <c r="H255">
+        <v>1251960</v>
+      </c>
+      <c r="I255">
+        <v>289894</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B256">
         <v>690191</v>
@@ -6382,10 +8695,19 @@
       <c r="F256">
         <v>31762</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256">
+        <v>1974696</v>
+      </c>
+      <c r="H256">
+        <v>1266490</v>
+      </c>
+      <c r="I256">
+        <v>292955</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B257">
         <v>585732</v>
@@ -6402,10 +8724,19 @@
       <c r="F257">
         <v>12000</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257">
+        <v>2013888</v>
+      </c>
+      <c r="H257">
+        <v>1279789</v>
+      </c>
+      <c r="I257">
+        <v>295417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B258">
         <v>702092</v>
@@ -6422,10 +8753,19 @@
       <c r="F258">
         <v>3523</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258">
+        <v>2072656</v>
+      </c>
+      <c r="H258">
+        <v>1292825</v>
+      </c>
+      <c r="I258">
+        <v>299249</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B259">
         <v>830574</v>
@@ -6442,10 +8782,19 @@
       <c r="F259">
         <v>33895</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259">
+        <v>2078487</v>
+      </c>
+      <c r="H259">
+        <v>1303809</v>
+      </c>
+      <c r="I259">
+        <v>302239</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" s="3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B260">
         <v>863124</v>
@@ -6462,10 +8811,19 @@
       <c r="F260">
         <v>18451</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260">
+        <v>2118793</v>
+      </c>
+      <c r="H260">
+        <v>1311433</v>
+      </c>
+      <c r="I260">
+        <v>303928</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B261">
         <v>1024924</v>
@@ -6481,6 +8839,15 @@
       </c>
       <c r="F261">
         <v>18842</v>
+      </c>
+      <c r="G261">
+        <v>2282387</v>
+      </c>
+      <c r="H261">
+        <v>1318035</v>
+      </c>
+      <c r="I261">
+        <v>305512</v>
       </c>
     </row>
   </sheetData>

--- a/src/original_data/FRB_Z1.xlsx
+++ b/src/original_data/FRB_Z1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="289">
   <si>
     <t>Download Page</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I261"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8848,6 +8851,35 @@
       </c>
       <c r="I261">
         <v>305512</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B262">
+        <v>585851</v>
+      </c>
+      <c r="C262">
+        <v>-668476</v>
+      </c>
+      <c r="D262">
+        <v>580409</v>
+      </c>
+      <c r="E262">
+        <v>5272</v>
+      </c>
+      <c r="F262">
+        <v>22332</v>
+      </c>
+      <c r="G262">
+        <v>2122468</v>
+      </c>
+      <c r="H262">
+        <v>1332701</v>
+      </c>
+      <c r="I262">
+        <v>308860</v>
       </c>
     </row>
   </sheetData>
